--- a/exposan/eco_san/data/impact_items.xlsx
+++ b/exposan/eco_san/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Desktop/Gates/Eco_san/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalinli_cabbi/Code/EXPOsan/exposan/eco_san/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4469F00F-9992-3C4A-A909-963C441DD770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5EE8B-DFD1-2F46-9562-87A36D0A70A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34580" yWindow="860" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="23960" yWindow="860" windowWidth="27240" windowHeight="16440" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
